--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="67">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t xml:space="preserve">Input Voltage: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPM: &lt;value&gt; rpm(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Voltage: &lt;value&gt; V</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1496,10 @@
         <v>17</v>
       </c>
       <c r="G5"/>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1515,7 +1533,9 @@
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
         <v>2</v>
@@ -1549,7 +1569,9 @@
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
       <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
@@ -1568,6 +1590,27 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1755,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1729,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1737,7 +1780,7 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -1746,10 +1789,26 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="67">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1800,13 +1800,13 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
